--- a/cpp仿真结果.xlsx
+++ b/cpp仿真结果.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1829D74-38A3-498C-A46A-A8732563D0A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EDA80B-5CE3-44AE-8585-1293C714812A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -346,13 +347,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>5.8</v>
       </c>
@@ -381,7 +382,7 @@
         <v>39.15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -410,7 +411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.2</v>
       </c>
@@ -439,7 +440,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.4</v>
       </c>
@@ -468,7 +469,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.6</v>
       </c>
@@ -497,7 +498,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.8</v>
       </c>
@@ -526,7 +527,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -555,7 +556,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7.2</v>
       </c>
@@ -584,7 +585,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7.4</v>
       </c>
@@ -613,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7.6</v>
       </c>
@@ -642,7 +643,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7.8</v>
       </c>
@@ -671,7 +672,7 @@
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -700,7 +701,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8.1999999999999993</v>
       </c>
@@ -727,6 +728,597 @@
       </c>
       <c r="I13">
         <v>7.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0834FD36-CBC3-4F4A-9A79-DF3BD1F6A664}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.8</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>999</v>
+      </c>
+      <c r="F1">
+        <v>124525</v>
+      </c>
+      <c r="G1">
+        <v>189073</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="J1">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="K1">
+        <v>24454</v>
+      </c>
+      <c r="L1">
+        <v>35417</v>
+      </c>
+      <c r="M1">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>996</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>996</v>
+      </c>
+      <c r="F2">
+        <v>120556</v>
+      </c>
+      <c r="G2">
+        <v>182991</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.2283</v>
+      </c>
+      <c r="J2">
+        <v>39.94</v>
+      </c>
+      <c r="K2">
+        <v>24454</v>
+      </c>
+      <c r="L2">
+        <v>35417</v>
+      </c>
+      <c r="M2">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.2</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>987</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>987</v>
+      </c>
+      <c r="F3">
+        <v>115118</v>
+      </c>
+      <c r="G3">
+        <v>175149</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="J3">
+        <v>39.83</v>
+      </c>
+      <c r="K3">
+        <v>24454</v>
+      </c>
+      <c r="L3">
+        <v>35417</v>
+      </c>
+      <c r="M3">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.4</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>961</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>961</v>
+      </c>
+      <c r="F4">
+        <v>108093</v>
+      </c>
+      <c r="G4">
+        <v>164328</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="J4">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="K4">
+        <v>24454</v>
+      </c>
+      <c r="L4">
+        <v>35417</v>
+      </c>
+      <c r="M4">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.6</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>910</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>910</v>
+      </c>
+      <c r="F5">
+        <v>97827</v>
+      </c>
+      <c r="G5">
+        <v>149305</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="J5">
+        <v>38.67</v>
+      </c>
+      <c r="K5">
+        <v>24454</v>
+      </c>
+      <c r="L5">
+        <v>35417</v>
+      </c>
+      <c r="M5">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.8</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>824</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>824</v>
+      </c>
+      <c r="F6">
+        <v>84900</v>
+      </c>
+      <c r="G6">
+        <v>129573</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1608</v>
+      </c>
+      <c r="J6">
+        <v>36.93</v>
+      </c>
+      <c r="K6">
+        <v>24454</v>
+      </c>
+      <c r="L6">
+        <v>35417</v>
+      </c>
+      <c r="M6">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>688</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>688</v>
+      </c>
+      <c r="F7">
+        <v>68296</v>
+      </c>
+      <c r="G7">
+        <v>104569</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.1293</v>
+      </c>
+      <c r="J7">
+        <v>34.29</v>
+      </c>
+      <c r="K7">
+        <v>24454</v>
+      </c>
+      <c r="L7">
+        <v>35417</v>
+      </c>
+      <c r="M7">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.2</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>519</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>519</v>
+      </c>
+      <c r="F8">
+        <v>49572</v>
+      </c>
+      <c r="G8">
+        <v>76006</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9.3890000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>30.08</v>
+      </c>
+      <c r="K8">
+        <v>24454</v>
+      </c>
+      <c r="L8">
+        <v>35417</v>
+      </c>
+      <c r="M8">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.4</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>341</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>341</v>
+      </c>
+      <c r="F9">
+        <v>30544</v>
+      </c>
+      <c r="G9">
+        <v>46905</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.7849999999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>25.14</v>
+      </c>
+      <c r="K9">
+        <v>24454</v>
+      </c>
+      <c r="L9">
+        <v>35417</v>
+      </c>
+      <c r="M9">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.6</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>204</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>204</v>
+      </c>
+      <c r="F10">
+        <v>18220</v>
+      </c>
+      <c r="G10">
+        <v>27672</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.4509999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>20.45</v>
+      </c>
+      <c r="K10">
+        <v>24454</v>
+      </c>
+      <c r="L10">
+        <v>35417</v>
+      </c>
+      <c r="M10">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.8</v>
+      </c>
+      <c r="B11">
+        <v>3000</v>
+      </c>
+      <c r="C11">
+        <v>244</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>244</v>
+      </c>
+      <c r="F11">
+        <v>20829</v>
+      </c>
+      <c r="G11">
+        <v>31720</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8.133E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.315E-2</v>
+      </c>
+      <c r="J11">
+        <v>15.84</v>
+      </c>
+      <c r="K11">
+        <v>31443</v>
+      </c>
+      <c r="L11">
+        <v>43798</v>
+      </c>
+      <c r="M11">
+        <v>56443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>6000</v>
+      </c>
+      <c r="C12">
+        <v>206</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>206</v>
+      </c>
+      <c r="F12">
+        <v>17346</v>
+      </c>
+      <c r="G12">
+        <v>26117</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.4329999999999999E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.4749999999999998E-3</v>
+      </c>
+      <c r="J12">
+        <v>12.83</v>
+      </c>
+      <c r="K12">
+        <v>48233</v>
+      </c>
+      <c r="L12">
+        <v>17249</v>
+      </c>
+      <c r="M12">
+        <v>12196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B13">
+        <v>17000</v>
+      </c>
+      <c r="C13">
+        <v>201</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>201</v>
+      </c>
+      <c r="F13">
+        <v>16083</v>
+      </c>
+      <c r="G13">
+        <v>24101</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.1820000000000001E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.792E-3</v>
+      </c>
+      <c r="J13">
+        <v>10.72</v>
+      </c>
+      <c r="K13">
+        <v>54621</v>
+      </c>
+      <c r="L13">
+        <v>39680</v>
+      </c>
+      <c r="M13">
+        <v>51346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8.4</v>
+      </c>
+      <c r="B14">
+        <v>62000</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>15749</v>
+      </c>
+      <c r="G14">
+        <v>23504</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.2260000000000001E-3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.8109999999999998E-4</v>
+      </c>
+      <c r="J14">
+        <v>9.34</v>
+      </c>
+      <c r="K14">
+        <v>55514</v>
+      </c>
+      <c r="L14">
+        <v>42901</v>
+      </c>
+      <c r="M14">
+        <v>43071</v>
       </c>
     </row>
   </sheetData>
